--- a/VVV excel.xlsx
+++ b/VVV excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bence\Documents\GitHub\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1BB7C6-2110-4C8C-A60D-F51637AB7B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F230E-4C4E-4EA9-989F-2189FC9E8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="257">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -218,15 +218,9 @@
     <t>Vasárnap</t>
   </si>
   <si>
-    <t>Ide irjatok amit akartok, lehetoleg amikor elore latjatok, hogy nem tudtok dolgozni a vizsgaremeken</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bence </t>
   </si>
   <si>
-    <t>Itt lesz Fruzsi :3</t>
-  </si>
-  <si>
     <t>Dátum</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
   </si>
   <si>
     <t xml:space="preserve">fizikai terv, 3 site 1-1-1 iroda </t>
-  </si>
-  <si>
-    <t>megyek Fruzsihoz :3</t>
   </si>
   <si>
     <t>fizikai topológia</t>
@@ -871,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,12 +961,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1602,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,15 +1841,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1892,12 +1868,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1931,25 +1901,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1964,54 +1925,72 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2031,24 +2010,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,17 +2036,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2110,9 +2077,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2150,7 +2117,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2256,7 +2223,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2398,7 +2365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2408,59 +2375,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="33.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.1796875" style="22"/>
-    <col min="17" max="17" width="21.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="22"/>
+    <col min="9" max="9" width="18.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="22"/>
+    <col min="17" max="17" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="146" t="s">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="146" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="147"/>
+      <c r="E1" s="145"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="135"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="136" t="s">
+      <c r="K1" s="134"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="135" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="150" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="121" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2477,11 +2444,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="133"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="151"/>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="136"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2496,15 +2463,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="132" t="s">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="136" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="150" t="s">
+      <c r="B4" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="124"/>
+      <c r="D4" s="121" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2521,337 +2488,337 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="133"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="151"/>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="136"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="111" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="I5" s="97"/>
+      <c r="J5" s="106" t="s">
+        <v>177</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="154"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="15"/>
       <c r="H6" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="98"/>
+      <c r="J6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="135" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="112" t="s">
+      <c r="I7" s="99"/>
+      <c r="J7" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="132" t="s">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="136"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="92"/>
+      <c r="H8" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B9" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="133"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="95"/>
-      <c r="H8" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="115" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="136" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="136"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="96" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="133"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="99" t="s">
-        <v>131</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="137"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="98" t="s">
-        <v>191</v>
+      <c r="B13" s="125"/>
+      <c r="C13" s="95" t="s">
+        <v>188</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="134" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="134" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="132" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="135"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="134"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="130"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="129"/>
+      <c r="D18" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="129" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="96" t="s">
+      <c r="E19" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="136" t="s">
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="125"/>
+      <c r="C21" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="143" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="142"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="129"/>
+      <c r="D24" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="140"/>
+      <c r="D25" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="102"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93"/>
+      <c r="B26" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="145" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="143" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="144"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="107"/>
-    </row>
-    <row r="26" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
-      <c r="B26" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="99"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="137"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="137"/>
+      <c r="B28" s="138"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="97"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="98"/>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="94"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="95"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K31" s="23"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="22">
         <v>32</v>
@@ -2860,249 +2827,249 @@
         <v>0</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K32" s="23"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B33" s="22">
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>199</v>
-      </c>
       <c r="E33" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K33" s="23"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B34" s="22">
         <v>32</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K34" s="23"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="22">
         <v>16</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I35" s="23"/>
       <c r="L35" s="23"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B36" s="22">
         <v>16</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I36" s="23"/>
       <c r="L36" s="23"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B37" s="22">
         <v>16</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="H37" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I37" s="23"/>
       <c r="L37" s="23"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B38" s="22">
         <v>16</v>
       </c>
       <c r="C38" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>205</v>
-      </c>
       <c r="G38" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B39" s="22">
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B40" s="22">
         <v>4</v>
       </c>
       <c r="C40" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="G40" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="105" t="s">
-        <v>138</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="B43" s="22">
         <v>16</v>
@@ -3111,94 +3078,94 @@
         <v>3</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" s="22">
         <v>16</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="F44" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B45" s="22">
         <v>16</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B51" s="22">
         <v>32</v>
@@ -3207,188 +3174,188 @@
         <v>2</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B52" s="22">
         <v>32</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B53" s="22">
         <v>32</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B54" s="22">
         <v>32</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B55" s="22">
         <v>16</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B56" s="22">
         <v>16</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B57" s="22">
         <v>16</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="22">
         <v>16</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B60" s="22">
         <v>16</v>
@@ -3403,21 +3370,21 @@
         <v>14</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G60" s="22">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B61" s="22">
         <v>8</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D61" s="22">
         <v>17</v>
@@ -3426,21 +3393,21 @@
         <v>22</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G61" s="22">
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B62" s="22">
         <v>4</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D62" s="22">
         <v>25</v>
@@ -3449,21 +3416,21 @@
         <v>26</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G62" s="22">
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B63" s="22">
         <v>4</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D63" s="22">
         <v>29</v>
@@ -3472,31 +3439,19 @@
         <v>30</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G63" s="22">
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3513,6 +3468,18 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3525,24 +3492,24 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="4" width="30.7265625" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="12" width="30.7265625" customWidth="1"/>
-    <col min="13" max="13" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>51</v>
@@ -3555,203 +3522,203 @@
       </c>
       <c r="E1" s="74"/>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="156" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="116" t="s">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="158" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="70"/>
       <c r="G2" s="86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="157"/>
-      <c r="B3" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="149"/>
+      <c r="B3" s="159" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="161" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="71"/>
       <c r="G3" s="87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="157"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="149"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
-      <c r="D4" s="104" t="s">
-        <v>76</v>
+      <c r="D4" s="161" t="s">
+        <v>74</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="72"/>
       <c r="G4" s="88" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="159" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="160" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="159" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="161" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="74"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="74"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="74"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="74"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="74"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84" t="s">
+      <c r="E9" s="74"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="81" t="s">
+      <c r="B10" s="159" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="74"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84" t="s">
+      <c r="E10" s="74"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="81" t="s">
+      <c r="B11" s="159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="160" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="74"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84" t="s">
+      <c r="E11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="81" t="s">
+      <c r="B12" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="74"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84" t="s">
+      <c r="E12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>254</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="74"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="74"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84" t="s">
-        <v>71</v>
       </c>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="81"/>
       <c r="E13" s="74"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
       <c r="E14" s="74"/>
     </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
       <c r="D15" s="83"/>
       <c r="E15" s="74"/>
     </row>
-    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -3761,125 +3728,125 @@
       <c r="M16" s="73"/>
       <c r="N16" s="73"/>
     </row>
-    <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
     </row>
-    <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
     </row>
-    <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
     </row>
-    <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
     </row>
-    <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
     </row>
-    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
     </row>
-    <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
     </row>
-    <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74"/>
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
     </row>
-    <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
     </row>
-    <row r="26" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
     </row>
-    <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74"/>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
     </row>
-    <row r="28" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74"/>
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
     </row>
-    <row r="29" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
     </row>
-    <row r="30" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
       <c r="E30" s="74"/>
     </row>
-    <row r="31" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74"/>
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
       <c r="E31" s="74"/>
     </row>
-    <row r="32" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74"/>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
       <c r="E32" s="74"/>
     </row>
-    <row r="38" spans="9:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="74"/>
     </row>
-    <row r="44" spans="9:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I44" s="75"/>
     </row>
-    <row r="45" spans="9:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I45" s="75"/>
     </row>
   </sheetData>
@@ -3894,44 +3861,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C2:T26"/>
+  <dimension ref="C2:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="158" t="s">
+    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
-      <c r="L3" s="164" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152"/>
+      <c r="L3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="167"/>
-    </row>
-    <row r="4" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
         <v>53</v>
       </c>
@@ -3953,12 +3913,12 @@
       <c r="I4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="57"/>
+    </row>
+    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="31">
         <v>10</v>
       </c>
@@ -3980,12 +3940,12 @@
       <c r="I5" s="67">
         <v>16</v>
       </c>
-      <c r="L5" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="26">
         <v>17</v>
       </c>
@@ -4007,12 +3967,8 @@
       <c r="I6" s="27">
         <v>23</v>
       </c>
-      <c r="L6" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="59"/>
-    </row>
-    <row r="7" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="28">
         <v>24</v>
       </c>
@@ -4035,20 +3991,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="161" t="s">
+    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-    </row>
-    <row r="11" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
+    </row>
+    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
         <v>53</v>
       </c>
@@ -4071,7 +4027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="41"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
@@ -4084,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="60">
         <v>3</v>
       </c>
@@ -4106,11 +4062,8 @@
       <c r="I13" s="63">
         <v>9</v>
       </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="26">
         <v>10</v>
       </c>
@@ -4133,7 +4086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="26">
         <v>17</v>
       </c>
@@ -4146,7 +4099,7 @@
       <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="119">
+      <c r="G15" s="112">
         <v>21</v>
       </c>
       <c r="H15" s="38">
@@ -4156,7 +4109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="26">
         <v>24</v>
       </c>
@@ -4169,17 +4122,17 @@
       <c r="F16" s="25">
         <v>27</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="113">
         <v>28</v>
       </c>
-      <c r="H16" s="122">
+      <c r="H16" s="114">
         <v>29</v>
       </c>
-      <c r="I16" s="123">
+      <c r="I16" s="115">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="28">
         <v>31</v>
       </c>
@@ -4192,30 +4145,30 @@
       <c r="F17" s="29">
         <v>3</v>
       </c>
-      <c r="G17" s="124">
+      <c r="G17" s="116">
         <v>4</v>
       </c>
-      <c r="H17" s="125">
+      <c r="H17" s="117">
         <v>5</v>
       </c>
-      <c r="I17" s="126">
+      <c r="I17" s="118">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="161" t="s">
+    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
-    </row>
-    <row r="21" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
+    </row>
+    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">
         <v>53</v>
       </c>
@@ -4238,7 +4191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="41"/>
       <c r="D22" s="42">
         <v>1</v>
@@ -4259,11 +4212,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="26">
         <v>7</v>
       </c>
-      <c r="D23" s="118">
+      <c r="D23" s="111">
         <v>8</v>
       </c>
       <c r="E23" s="25">
@@ -4282,7 +4235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="26">
         <v>14</v>
       </c>
@@ -4295,17 +4248,17 @@
       <c r="F24" s="25">
         <v>17</v>
       </c>
-      <c r="G24" s="127">
+      <c r="G24" s="119">
         <v>18</v>
       </c>
-      <c r="H24" s="128">
+      <c r="H24" s="120">
         <v>19</v>
       </c>
       <c r="I24" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="26">
         <v>21</v>
       </c>
@@ -4327,11 +4280,8 @@
       <c r="I25" s="63">
         <v>27</v>
       </c>
-      <c r="K25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="68">
         <v>28</v>
       </c>
@@ -4355,11 +4305,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="L3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
